--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Omg-Rtn4rl1.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.76295499093473</v>
+        <v>4.523724666666666</v>
       </c>
       <c r="H2">
-        <v>3.76295499093473</v>
+        <v>13.571174</v>
       </c>
       <c r="I2">
-        <v>0.4495886579590214</v>
+        <v>0.4806607624766543</v>
       </c>
       <c r="J2">
-        <v>0.4495886579590214</v>
+        <v>0.4806607624766543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.65971932407604</v>
+        <v>4.806204333333334</v>
       </c>
       <c r="N2">
-        <v>4.65971932407604</v>
+        <v>14.418613</v>
       </c>
       <c r="O2">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="P2">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="Q2">
-        <v>17.53431408688694</v>
+        <v>21.74194509574022</v>
       </c>
       <c r="R2">
-        <v>17.53431408688694</v>
+        <v>195.677505861662</v>
       </c>
       <c r="S2">
-        <v>0.3261583291328532</v>
+        <v>0.3502785169859515</v>
       </c>
       <c r="T2">
-        <v>0.3261583291328532</v>
+        <v>0.3502785169859515</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.76295499093473</v>
+        <v>4.523724666666666</v>
       </c>
       <c r="H3">
-        <v>3.76295499093473</v>
+        <v>13.571174</v>
       </c>
       <c r="I3">
-        <v>0.4495886579590214</v>
+        <v>0.4806607624766543</v>
       </c>
       <c r="J3">
-        <v>0.4495886579590214</v>
+        <v>0.4806607624766543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.76340947642665</v>
+        <v>1.788987</v>
       </c>
       <c r="N3">
-        <v>1.76340947642665</v>
+        <v>5.366961</v>
       </c>
       <c r="O3">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="P3">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="Q3">
-        <v>6.635630490381262</v>
+        <v>8.092884620245998</v>
       </c>
       <c r="R3">
-        <v>6.635630490381262</v>
+        <v>72.835961582214</v>
       </c>
       <c r="S3">
-        <v>0.1234303288261682</v>
+        <v>0.1303822454907028</v>
       </c>
       <c r="T3">
-        <v>0.1234303288261682</v>
+        <v>0.1303822454907028</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.00915297750438</v>
+        <v>2.109481</v>
       </c>
       <c r="H4">
-        <v>2.00915297750438</v>
+        <v>6.328443</v>
       </c>
       <c r="I4">
-        <v>0.2400486832732977</v>
+        <v>0.2241393587371326</v>
       </c>
       <c r="J4">
-        <v>0.2400486832732977</v>
+        <v>0.2241393587371326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.65971932407604</v>
+        <v>4.806204333333334</v>
       </c>
       <c r="N4">
-        <v>4.65971932407604</v>
+        <v>14.418613</v>
       </c>
       <c r="O4">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="P4">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="Q4">
-        <v>9.362088954302072</v>
+        <v>10.13859672328434</v>
       </c>
       <c r="R4">
-        <v>9.362088954302072</v>
+        <v>91.247370509559</v>
       </c>
       <c r="S4">
-        <v>0.1741455796558296</v>
+        <v>0.1633401523604462</v>
       </c>
       <c r="T4">
-        <v>0.1741455796558296</v>
+        <v>0.1633401523604462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.00915297750438</v>
+        <v>2.109481</v>
       </c>
       <c r="H5">
-        <v>2.00915297750438</v>
+        <v>6.328443</v>
       </c>
       <c r="I5">
-        <v>0.2400486832732977</v>
+        <v>0.2241393587371326</v>
       </c>
       <c r="J5">
-        <v>0.2400486832732977</v>
+        <v>0.2241393587371326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.76340947642665</v>
+        <v>1.788987</v>
       </c>
       <c r="N5">
-        <v>1.76340947642665</v>
+        <v>5.366961</v>
       </c>
       <c r="O5">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="P5">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="Q5">
-        <v>3.542959400122043</v>
+        <v>3.773834085747</v>
       </c>
       <c r="R5">
-        <v>3.542959400122043</v>
+        <v>33.964506771723</v>
       </c>
       <c r="S5">
-        <v>0.06590310361746815</v>
+        <v>0.06079920637668636</v>
       </c>
       <c r="T5">
-        <v>0.06590310361746815</v>
+        <v>0.06079920637668636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.5976649880613</v>
+        <v>2.778265</v>
       </c>
       <c r="H6">
-        <v>2.5976649880613</v>
+        <v>8.334795</v>
       </c>
       <c r="I6">
-        <v>0.3103626587676808</v>
+        <v>0.2951998787862131</v>
       </c>
       <c r="J6">
-        <v>0.3103626587676808</v>
+        <v>0.2951998787862131</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.65971932407604</v>
+        <v>4.806204333333334</v>
       </c>
       <c r="N6">
-        <v>4.65971932407604</v>
+        <v>14.418613</v>
       </c>
       <c r="O6">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="P6">
-        <v>0.7254594246516368</v>
+        <v>0.7287437301541012</v>
       </c>
       <c r="Q6">
-        <v>12.10438974234499</v>
+        <v>13.35290928214833</v>
       </c>
       <c r="R6">
-        <v>12.10438974234499</v>
+        <v>120.176183539335</v>
       </c>
       <c r="S6">
-        <v>0.225155515862954</v>
+        <v>0.2151250608077034</v>
       </c>
       <c r="T6">
-        <v>0.225155515862954</v>
+        <v>0.2151250608077034</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.5976649880613</v>
+        <v>2.778265</v>
       </c>
       <c r="H7">
-        <v>2.5976649880613</v>
+        <v>8.334795</v>
       </c>
       <c r="I7">
-        <v>0.3103626587676808</v>
+        <v>0.2951998787862131</v>
       </c>
       <c r="J7">
-        <v>0.3103626587676808</v>
+        <v>0.2951998787862131</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.76340947642665</v>
+        <v>1.788987</v>
       </c>
       <c r="N7">
-        <v>1.76340947642665</v>
+        <v>5.366961</v>
       </c>
       <c r="O7">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="P7">
-        <v>0.2745405753483631</v>
+        <v>0.2712562698458988</v>
       </c>
       <c r="Q7">
-        <v>4.580747056529017</v>
+        <v>4.970279967554999</v>
       </c>
       <c r="R7">
-        <v>4.580747056529017</v>
+        <v>44.732519707995</v>
       </c>
       <c r="S7">
-        <v>0.08520714290472679</v>
+        <v>0.08007481797850964</v>
       </c>
       <c r="T7">
-        <v>0.08520714290472679</v>
+        <v>0.08007481797850964</v>
       </c>
     </row>
   </sheetData>
